--- a/图片大小.xlsx
+++ b/图片大小.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表单1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>位置</t>
   </si>
@@ -87,18 +87,12 @@
     <t>海报大片——海报</t>
   </si>
   <si>
-    <t>1024x622</t>
-  </si>
-  <si>
     <t>海报大片——缩略</t>
   </si>
   <si>
     <t>37x29</t>
   </si>
   <si>
-    <t>1024x704</t>
-  </si>
-  <si>
     <t>当季故事——背景</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>406x214</t>
   </si>
   <si>
-    <t>237x427</t>
-  </si>
-  <si>
     <t>渔式搭配——系列</t>
   </si>
   <si>
@@ -159,9 +150,6 @@
     <t>渔人码头——首面栏目缩略</t>
   </si>
   <si>
-    <t>336x112</t>
-  </si>
-  <si>
     <t xml:space="preserve">渔人码头——衣物护理 </t>
   </si>
   <si>
@@ -169,6 +157,15 @@
   </si>
   <si>
     <t>674x480</t>
+  </si>
+  <si>
+    <t>237x433</t>
+  </si>
+  <si>
+    <t>359x137</t>
+  </si>
+  <si>
+    <t>1024x768</t>
   </si>
 </sst>
 </file>
@@ -210,12 +207,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -238,9 +241,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1005,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1024,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1078,20 +1083,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1" t="s">
+    <row r="114" spans="1:3" s="3" customFormat="1">
+      <c r="A114" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B114" t="s">
-        <v>18</v>
+      <c r="B114" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s">
         <v>19</v>
-      </c>
-      <c r="B116" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1102,113 +1107,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B124" t="s">
-        <v>21</v>
+    <row r="124" spans="1:3" s="3" customFormat="1">
+      <c r="A124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B129" t="s">
         <v>30</v>
       </c>
-      <c r="B129" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B130" t="s">
-        <v>33</v>
+    </row>
+    <row r="130" spans="1:2" s="3" customFormat="1">
+      <c r="A130" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B145" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B170" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B172" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" s="3" customFormat="1">
+      <c r="A172" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B174" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" s="3" customFormat="1">
+      <c r="A183" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" s="3" customFormat="1">
+      <c r="A201" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B174" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B183" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B201" t="s">
-        <v>21</v>
+      <c r="B201" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B203" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
